--- a/fma/pca_analysis_output.xlsx
+++ b/fma/pca_analysis_output.xlsx
@@ -18,15 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">analysis!$A$1:$E$78</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="31">
   <si>
     <t>Column Labels</t>
   </si>
@@ -105,6 +106,21 @@
   <si>
     <t>Average of % REDUCTION</t>
   </si>
+  <si>
+    <t>Sum of PCA</t>
+  </si>
+  <si>
+    <t>Total number of PCA columns</t>
+  </si>
+  <si>
+    <t>% REDUCTION / PCA</t>
+  </si>
+  <si>
+    <t>Sum of % REDUCTION / PCA</t>
+  </si>
+  <si>
+    <t>Total of % REDUCTION / PCA</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,11 +202,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,11 +234,787 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -317,6 +1124,59 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ksheerasagar Akella" refreshedDate="42977.089148842591" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="77">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F78" sheet="analysis"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="FEATURE" numFmtId="0">
+      <sharedItems count="11">
+        <s v="chroma_stft"/>
+        <s v="chroma_cqt"/>
+        <s v="chroma_cens"/>
+        <s v="tonnetz"/>
+        <s v="mfcc"/>
+        <s v="rmse"/>
+        <s v="zcr"/>
+        <s v="spectral_centroid"/>
+        <s v="spectral_bandwidth"/>
+        <s v="spectral_contrast"/>
+        <s v="spectral_rolloff"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ATTRIBUTE" numFmtId="0">
+      <sharedItems count="7">
+        <s v="kurtosis"/>
+        <s v="mean"/>
+        <s v="min"/>
+        <s v="max"/>
+        <s v="skew"/>
+        <s v="median"/>
+        <s v="std"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ORIGINAL" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="PCA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="% REDUCTION" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.9"/>
+    </cacheField>
+    <cacheField name="% REDUCTION / PCA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.45"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="77">
   <r>
@@ -861,8 +1721,1014 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="77">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.16666666666666666"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="0.83333333333333337"/>
+    <n v="0.41666666666666669"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="0.5"/>
+    <n v="8.3333333333333329E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="0.25"/>
+    <n v="2.7777777777777776E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="0.83333333333333337"/>
+    <n v="0.41666666666666669"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="0.5"/>
+    <n v="8.3333333333333329E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="5"/>
+    <n v="0.58333333333333337"/>
+    <n v="0.11666666666666667"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="0.5"/>
+    <n v="8.3333333333333329E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="0.25"/>
+    <n v="2.7777777777777776E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="0.5"/>
+    <n v="8.3333333333333329E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="0.25"/>
+    <n v="2.7777777777777776E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="0.25"/>
+    <n v="2.7777777777777776E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="0.41666666666666669"/>
+    <n v="5.9523809523809527E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="0.33333333333333331"/>
+    <n v="4.1666666666666664E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="0.5"/>
+    <n v="0.16666666666666666"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="0.5"/>
+    <n v="0.16666666666666666"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="0.5"/>
+    <n v="0.16666666666666666"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="0.16666666666666671"/>
+    <n v="3.333333333333334E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="0.9"/>
+    <n v="0.45"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="0.85"/>
+    <n v="0.28333333333333333"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="0.65"/>
+    <n v="9.285714285714286E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="0.75"/>
+    <n v="0.15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="12"/>
+    <n v="0.4"/>
+    <n v="3.3333333333333333E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="0.85"/>
+    <n v="0.28333333333333333"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="0.85"/>
+    <n v="0.28333333333333333"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="0.5714285714285714"/>
+    <n v="0.19047619047619047"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0.42857142857142849"/>
+    <n v="0.10714285714285712"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0.42857142857142849"/>
+    <n v="0.10714285714285712"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="0.2857142857142857"/>
+    <n v="5.7142857142857141E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0.42857142857142849"/>
+    <n v="0.10714285714285712"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0.42857142857142849"/>
+    <n v="0.10714285714285712"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0.42857142857142849"/>
+    <n v="0.10714285714285712"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of % REDUCTION" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total of % REDUCTION / PCA" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A39:I52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of % REDUCTION / PCA" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="38">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total number of PCA columns" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of PCA" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="72">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="74">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of % REDUCTION" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -971,7 +2837,7 @@
     <dataField name="Average of % REDUCTION" fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="79">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -980,7 +2846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -989,7 +2855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="77">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -998,7 +2864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1280,18 +3146,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I16"/>
+  <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,6 +3543,776 @@
       </c>
       <c r="I16" s="3">
         <v>0.2792207792207792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>9</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3">
+        <v>49</v>
+      </c>
+      <c r="H34" s="3">
+        <v>40</v>
+      </c>
+      <c r="I34" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.35912698412698418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.84682539682539693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.87301587301587302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F44" s="6">
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1.5761904761904764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.7833333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G50" s="6">
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.52063492063492067</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.95952380952380945</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.32063492063492061</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.821031746031746</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5.9718253968253965</v>
       </c>
     </row>
   </sheetData>
@@ -1686,11 +4322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,9 +4335,10 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1718,8 +4354,11 @@
       <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1735,8 +4374,12 @@
       <c r="E2">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1752,8 +4395,12 @@
       <c r="E3">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">E3/D3</f>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1769,8 +4416,12 @@
       <c r="E4">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1786,8 +4437,12 @@
       <c r="E5">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1803,8 +4458,12 @@
       <c r="E6">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1820,8 +4479,12 @@
       <c r="E7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1837,8 +4500,12 @@
       <c r="E8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1854,8 +4521,12 @@
       <c r="E9">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1871,8 +4542,12 @@
       <c r="E10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1888,8 +4563,12 @@
       <c r="E11">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +4584,12 @@
       <c r="E12">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1922,8 +4605,12 @@
       <c r="E13">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1939,8 +4626,12 @@
       <c r="E14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1956,8 +4647,12 @@
       <c r="E15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1973,8 +4668,12 @@
       <c r="E16">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1990,8 +4689,12 @@
       <c r="E17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2007,8 +4710,12 @@
       <c r="E18">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2024,8 +4731,12 @@
       <c r="E19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2041,8 +4752,12 @@
       <c r="E20">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2058,8 +4773,12 @@
       <c r="E21">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2075,8 +4794,12 @@
       <c r="E22">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2092,8 +4815,12 @@
       <c r="E23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2109,8 +4836,12 @@
       <c r="E24">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2126,8 +4857,12 @@
       <c r="E25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2143,8 +4878,12 @@
       <c r="E26">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2160,8 +4899,12 @@
       <c r="E27">
         <v>0.16666666666666671</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2177,8 +4920,12 @@
       <c r="E28">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2194,8 +4941,12 @@
       <c r="E29">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2211,8 +4962,12 @@
       <c r="E30">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2228,8 +4983,12 @@
       <c r="E31">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2245,8 +5004,12 @@
       <c r="E32">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2262,8 +5025,12 @@
       <c r="E33">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2279,8 +5046,12 @@
       <c r="E34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2296,8 +5067,12 @@
       <c r="E35">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2313,8 +5088,12 @@
       <c r="E36">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2330,8 +5109,12 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2347,8 +5130,12 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2364,8 +5151,12 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2381,8 +5172,12 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2398,8 +5193,12 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2415,8 +5214,12 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2432,8 +5235,12 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2449,8 +5256,12 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2466,8 +5277,12 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2483,8 +5298,12 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2500,8 +5319,12 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2517,8 +5340,12 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2534,8 +5361,12 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2551,8 +5382,12 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2568,8 +5403,12 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2585,8 +5424,12 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2602,8 +5445,12 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2619,8 +5466,12 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2636,8 +5487,12 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2653,8 +5508,12 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2670,8 +5529,12 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2687,8 +5550,12 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2704,8 +5571,12 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2721,8 +5592,12 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2738,8 +5613,12 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2755,8 +5634,12 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2772,8 +5655,12 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2789,8 +5676,12 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2806,8 +5697,12 @@
       <c r="E65">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2823,8 +5718,12 @@
       <c r="E66">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.10714285714285712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +5739,12 @@
       <c r="E67">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F78" si="1">E67/D67</f>
+        <v>0.10714285714285712</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2857,8 +5760,12 @@
       <c r="E68">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2874,8 +5781,12 @@
       <c r="E69">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2891,8 +5802,12 @@
       <c r="E70">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2908,8 +5823,12 @@
       <c r="E71">
         <v>0.42857142857142849</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2925,8 +5844,12 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2942,8 +5865,12 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -2959,8 +5886,12 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -2976,8 +5907,12 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2993,8 +5928,12 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -3010,8 +5949,12 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -3027,15 +5970,12 @@
       <c r="E78">
         <v>0</v>
       </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E78">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="mfcc"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fma/pca_analysis_output.xlsx
+++ b/fma/pca_analysis_output.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -143,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,618 +244,96 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,28 +350,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -984,36 +446,50 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2343,7 +1819,395 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total of % REDUCTION / PCA" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total number of PCA columns" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of PCA" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of % REDUCTION" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of % REDUCTION" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total of % REDUCTION / PCA" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A39:I52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2452,8 +2316,8 @@
   <dataFields count="1">
     <dataField name="Sum of % REDUCTION / PCA" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="10">
-    <format dxfId="38">
+  <formats count="16">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2462,7 +2326,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2471,7 +2335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2480,7 +2344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2489,7 +2353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2498,7 +2362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2507,7 +2371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2516,7 +2380,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2525,7 +2389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2534,7 +2398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -2543,332 +2407,60 @@
         </references>
       </pivotArea>
     </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total number of PCA columns" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:I34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of PCA" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="72">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
+          <reference field="0" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
+          <reference field="0" count="3">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="3"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="3"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="3"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of % REDUCTION" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:I16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of % REDUCTION" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="79">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="77">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="76">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -3148,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,89 +2906,89 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3430,31 +3022,31 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3488,31 +3080,31 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4084,89 +3676,89 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4200,31 +3792,31 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4258,31 +3850,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
         <v>0</v>
       </c>
     </row>
